--- a/data-raw/FISHBIO_submission/FISHBIO_passage_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_passage_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\CVPIA\data-stewardship\fishbio-stanislaus-o.mykiss\data-raw\FISHBIO submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E151ED55-9F77-47E8-8085-F3B5BCE4C47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E6AA8-8E4B-3741-81ED-125618F64417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20385" yWindow="-17520" windowWidth="16440" windowHeight="28440" tabRatio="834" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33180" yWindow="1280" windowWidth="28800" windowHeight="15800" tabRatio="834" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -1157,12 +1157,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1202,16 +1202,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="32.625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1263,31 +1263,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMH19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A17:A18"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.625" style="2"/>
-    <col min="3" max="3" width="13.125" style="10" customWidth="1"/>
+    <col min="1" max="2" width="19.6640625" style="2"/>
+    <col min="3" max="3" width="13.1640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="10" customWidth="1"/>
     <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.625" style="2" customWidth="1"/>
-    <col min="15" max="1022" width="19.625" style="2"/>
-    <col min="1023" max="1025" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="2" customWidth="1"/>
+    <col min="15" max="1022" width="19.6640625" style="2"/>
+    <col min="1023" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>170</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>171</v>
       </c>
@@ -1376,10 +1376,14 @@
       <c r="L3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>161</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>172</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>173</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>174</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>162</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>175</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>163</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>164</v>
       </c>
@@ -1565,7 +1569,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>165</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>166</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>167</v>
       </c>
@@ -1607,7 +1611,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>168</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>169</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>176</v>
       </c>
@@ -1649,7 +1653,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>177</v>
       </c>
@@ -1694,19 +1698,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -1772,7 +1776,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -1794,7 +1798,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -1816,7 +1820,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -1926,7 +1930,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>196</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>190</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -1992,7 +1996,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>197</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>198</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>199</v>
       </c>
@@ -2036,7 +2040,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -2047,7 +2051,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>201</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>203</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -2105,14 +2109,14 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
     <col min="6" max="6" width="27" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2149,7 +2153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2166,7 +2170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -2208,13 +2212,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="34.875" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
@@ -2244,13 +2248,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.625" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2258,32 +2262,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -2302,15 +2306,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2327,7 +2331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -2351,14 +2355,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9" style="7"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2417,17 +2421,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="7"/>
-    <col min="6" max="6" width="17.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2447,7 +2451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -2459,7 +2463,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
@@ -2487,12 +2491,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -2534,17 +2538,17 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="53.625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
@@ -2590,22 +2594,22 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G8" s="5"/>
     </row>
   </sheetData>

--- a/data-raw/FISHBIO_submission/FISHBIO_passage_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_passage_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E6AA8-8E4B-3741-81ED-125618F64417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8AEEBB-D307-C549-A348-6AEE54711D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="1280" windowWidth="28800" windowHeight="15800" tabRatio="834" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33180" yWindow="1280" windowWidth="28800" windowHeight="15800" tabRatio="834" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="207">
   <si>
     <t>first_name</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>tb</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>Individual had abrasions upon passage or release</t>
   </si>
 </sst>
 </file>
@@ -1263,9 +1269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1696,17 +1702,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1888,54 +1894,54 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>167</v>
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>167</v>
@@ -1943,10 +1949,10 @@
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>167</v>
@@ -1954,10 +1960,10 @@
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>167</v>
@@ -1965,21 +1971,21 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>168</v>
@@ -1987,10 +1993,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>168</v>
@@ -1998,10 +2004,10 @@
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>168</v>
@@ -2009,21 +2015,21 @@
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>169</v>
@@ -2031,10 +2037,10 @@
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>169</v>
@@ -2042,10 +2048,10 @@
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>169</v>
@@ -2053,10 +2059,10 @@
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>169</v>
@@ -2064,10 +2070,10 @@
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>169</v>
@@ -2075,10 +2081,10 @@
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>169</v>
@@ -2086,12 +2092,23 @@
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>204</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>169</v>
       </c>
     </row>

--- a/data-raw/FISHBIO_submission/FISHBIO_passage_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_passage_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erincain/Documents/Git/CVPIA/data-stewardship/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8AEEBB-D307-C549-A348-6AEE54711D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4202A9CF-5D14-A140-B9F3-6390C4A53B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="1280" windowWidth="28800" windowHeight="15800" tabRatio="834" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" tabRatio="834" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -574,9 +574,6 @@
     <t>count</t>
   </si>
   <si>
-    <t>device</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -665,6 +662,9 @@
   </si>
   <si>
     <t>Individual had abrasions upon passage or release</t>
+  </si>
+  <si>
+    <t>vaki_trap</t>
   </si>
 </sst>
 </file>
@@ -739,39 +739,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,7 +855,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1149,7 +1143,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1269,22 +1263,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMH19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="19.6640625" style="2"/>
-    <col min="3" max="3" width="13.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="7" customWidth="1"/>
     <col min="11" max="11" width="16" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
@@ -1300,7 +1294,7 @@
       <c r="B1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1321,7 +1315,7 @@
       <c r="I1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1356,10 +1350,10 @@
       <c r="L2" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="11">
         <v>38361</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="11">
         <v>44196</v>
       </c>
     </row>
@@ -1376,16 +1370,16 @@
       <c r="F3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1534,7 +1528,7 @@
       <c r="G10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>105</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1647,7 +1641,7 @@
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>128</v>
@@ -1661,7 +1655,7 @@
     </row>
     <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>117</v>
@@ -1704,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1729,7 +1723,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>118</v>
@@ -1740,7 +1734,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -1751,7 +1745,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>120</v>
@@ -1762,7 +1756,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>130</v>
@@ -1773,7 +1767,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
@@ -1795,7 +1789,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -1806,7 +1800,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
         <v>143</v>
@@ -1817,7 +1811,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
         <v>144</v>
@@ -1828,7 +1822,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
         <v>145</v>
@@ -1839,7 +1833,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
         <v>146</v>
@@ -1850,7 +1844,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
@@ -1861,7 +1855,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
         <v>126</v>
@@ -1872,7 +1866,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
         <v>127</v>
@@ -1883,7 +1877,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>129</v>
@@ -1894,10 +1888,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
         <v>205</v>
-      </c>
-      <c r="B17" t="s">
-        <v>206</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -1905,7 +1899,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
         <v>131</v>
@@ -1916,7 +1910,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>132</v>
@@ -1927,7 +1921,7 @@
     </row>
     <row r="20" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>133</v>
@@ -1938,7 +1932,7 @@
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
         <v>134</v>
@@ -1949,7 +1943,7 @@
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
         <v>135</v>
@@ -1960,7 +1954,7 @@
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
         <v>136</v>
@@ -1971,7 +1965,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
         <v>137</v>
@@ -1982,7 +1976,7 @@
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
         <v>138</v>
@@ -1993,7 +1987,7 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
         <v>139</v>
@@ -2004,7 +1998,7 @@
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
         <v>140</v>
@@ -2015,7 +2009,7 @@
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
         <v>141</v>
@@ -2026,7 +2020,7 @@
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
         <v>147</v>
@@ -2037,7 +2031,7 @@
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
         <v>148</v>
@@ -2048,7 +2042,7 @@
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
         <v>149</v>
@@ -2059,7 +2053,7 @@
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
         <v>150</v>
@@ -2070,7 +2064,7 @@
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" t="s">
         <v>151</v>
@@ -2081,7 +2075,7 @@
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" t="s">
         <v>152</v>
@@ -2092,7 +2086,7 @@
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
         <v>153</v>
@@ -2103,7 +2097,7 @@
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" t="s">
         <v>154</v>
@@ -2130,7 +2124,7 @@
   <cols>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2149,7 +2143,7 @@
       <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2160,7 +2154,7 @@
       <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D2" t="s">
@@ -2177,7 +2171,7 @@
       <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D3" t="s">
@@ -2194,7 +2188,7 @@
       <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D4" t="s">
@@ -2268,14 +2262,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2374,9 +2368,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9" style="7"/>
+    <col min="3" max="3" width="9" style="6"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7"/>
+    <col min="6" max="6" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2386,7 +2380,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2395,7 +2389,7 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2406,7 +2400,7 @@
       <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D2" t="s">
@@ -2441,30 +2435,30 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="7"/>
-    <col min="6" max="6" width="17.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="6"/>
+    <col min="6" max="6" width="17.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2472,13 +2466,13 @@
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2589,7 +2583,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="2">
@@ -2604,30 +2598,30 @@
       <c r="E2" s="2">
         <v>37.747304929907799</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>38361</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>44196</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="5"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
